--- a/bank statement generator/bank_statements/statement_36.xlsx
+++ b/bank statement generator/bank_statements/statement_36.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 08.02.2025</t>
+          <t>KONTOSTAND AM 14.06.2025</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,132 +759,132 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>11.02.</t>
+          <t>16.06.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>12.02.</t>
+          <t>17.06.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>RECHNUNG VODAFONE GMBH 17014769</t>
+          <t>MCDONALDS Dachau</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>38,87-</t>
+          <t>16,49-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>13.02.</t>
+          <t>17.06.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>14.02.</t>
+          <t>18.06.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>BEITRAG Allianz SE K-23469750</t>
+          <t>KARTENZAHLUNG ARAL TANKSTELLE</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>53,03-</t>
+          <t>71,58-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>16.02.</t>
+          <t>20.06.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>17.02.</t>
+          <t>21.06.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>KARTENZ./16.02 EDEKA RO</t>
+          <t>ABSCHLAG STROM Stadtwerke Rosenheim 11881583</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>104,31-</t>
+          <t>87,77-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>17.02.</t>
+          <t>23.06.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>18.02.</t>
+          <t>24.06.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>KARTENZAHLUNG JET TANKSTELLE</t>
+          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>66,24-</t>
+          <t>24,52-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>18.02.</t>
+          <t>26.06.</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>19.02.</t>
+          <t>27.06.</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MCDONALDS Greiz</t>
+          <t>KARTENZAHLUNG JET TANKSTELLE</t>
         </is>
       </c>
       <c r="E10" s="17" t="inlineStr">
         <is>
-          <t>44,78-</t>
+          <t>64,83-</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>21.02.</t>
+          <t>29.06.</t>
         </is>
       </c>
       <c r="C11" s="8" t="inlineStr">
         <is>
-          <t>22.02.</t>
+          <t>30.06.</t>
         </is>
       </c>
       <c r="D11" s="8" t="inlineStr">
         <is>
-          <t>PAYPAL UXJXVJ</t>
+          <t>PAYPAL RFDWBF</t>
         </is>
       </c>
       <c r="E11" s="17" t="inlineStr">
         <is>
-          <t>94,69-</t>
+          <t>64,79-</t>
         </is>
       </c>
     </row>
@@ -893,12 +893,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 25.02.2025</t>
+          <t>KONTOSTAND AM 02.07.2025</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>401,92-</t>
+          <t>329,98-</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 04.03.2025</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 10.07.2025</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
